--- a/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/SessionResultsWithSorting.xlsx
+++ b/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/SessionResultsWithSorting.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Surname</t>
   </si>
@@ -38,52 +38,70 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Ivanov</t>
-  </si>
-  <si>
-    <t>Ivan</t>
-  </si>
-  <si>
-    <t>Ivanovich</t>
+    <t>Andreev</t>
+  </si>
+  <si>
+    <t>Andrey</t>
+  </si>
+  <si>
+    <t>Andreevich</t>
   </si>
   <si>
     <t>10.11.2019</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Examen</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t xml:space="preserve">_x000D_
 Physics</t>
   </si>
   <si>
+    <t>Examen</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Ivanova</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Ivanovna</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Ivanov</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Ivanovich</t>
+  </si>
+  <si>
     <t>Philosophy</t>
   </si>
   <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>Andreev</t>
-  </si>
-  <si>
-    <t>Andrey</t>
-  </si>
-  <si>
-    <t>Andreevich</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Sergeev</t>
   </si>
   <si>
@@ -93,27 +111,12 @@
     <t>Sergeevich</t>
   </si>
   <si>
-    <t>Psychology</t>
-  </si>
-  <si>
     <t>Uncredit</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Ivanova</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Ivanovna</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Krasnova</t>
   </si>
   <si>
@@ -123,7 +126,16 @@
     <t>Sergeevna</t>
   </si>
   <si>
-    <t>7</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Kirpitch</t>
+  </si>
+  <si>
+    <t>Evgeniy</t>
+  </si>
+  <si>
+    <t>Victorivich</t>
   </si>
   <si>
     <t>Petrov</t>
@@ -135,13 +147,22 @@
     <t>Petrovich</t>
   </si>
   <si>
-    <t>Kirpitch</t>
-  </si>
-  <si>
-    <t>Evgeniy</t>
-  </si>
-  <si>
-    <t>Victorivich</t>
+    <t>Maximov</t>
+  </si>
+  <si>
+    <t>Maxim</t>
+  </si>
+  <si>
+    <t>Maximovich</t>
+  </si>
+  <si>
+    <t>Ryba</t>
+  </si>
+  <si>
+    <t>Oleg</t>
+  </si>
+  <si>
+    <t>Olegovich</t>
   </si>
   <si>
     <t>Stepanov</t>
@@ -153,25 +174,19 @@
     <t>Stepanovich</t>
   </si>
   <si>
+    <t>Denisov</t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>Denisovich</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>Maximov</t>
-  </si>
-  <si>
-    <t>Maxim</t>
-  </si>
-  <si>
-    <t>Maximovich</t>
-  </si>
-  <si>
-    <t>Ryba</t>
-  </si>
-  <si>
-    <t>Oleg</t>
-  </si>
-  <si>
-    <t>Olegovich</t>
+    <t>History</t>
   </si>
   <si>
     <t>Pervaya</t>
@@ -187,15 +202,6 @@
   </si>
   <si>
     <t>Ilya</t>
-  </si>
-  <si>
-    <t>Denisov</t>
-  </si>
-  <si>
-    <t>Denis</t>
-  </si>
-  <si>
-    <t>Denisovich</t>
   </si>
   <si>
     <t>Sonnaya</t>
@@ -354,151 +360,151 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -515,13 +521,13 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -538,13 +544,13 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -561,13 +567,13 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -617,94 +623,94 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -754,36 +760,36 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>10</v>
@@ -795,18 +801,18 @@
         <v>12</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>10</v>
@@ -818,7 +824,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -835,13 +841,13 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -858,13 +864,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -881,13 +887,13 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -904,13 +910,13 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -933,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -956,7 +962,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -966,7 +972,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1024,30 +1030,30 @@
         <v>12</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -1070,30 +1076,99 @@
         <v>12</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>21</v>
+      <c r="B8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/SessionResultsWithSorting.xlsx
+++ b/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/SessionResultsWithSorting.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Surname</t>
   </si>
@@ -47,88 +47,102 @@
     <t>Andreevich</t>
   </si>
   <si>
+    <t>15.11.2019</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Examen</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>14.07.2020</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Ivanova</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Ivanovna</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
     <t>10.11.2019</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-Physics</t>
-  </si>
-  <si>
-    <t>Examen</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Ivanova</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Ivanovna</t>
-  </si>
-  <si>
-    <t>Psychology</t>
-  </si>
-  <si>
-    <t>Credit</t>
+    <t>14.11.2019</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Ivanov</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Ivanovich</t>
+  </si>
+  <si>
+    <t>10.07.2020</t>
+  </si>
+  <si>
+    <t>Philosophy</t>
+  </si>
+  <si>
+    <t>Sergeev</t>
+  </si>
+  <si>
+    <t>Sergey</t>
+  </si>
+  <si>
+    <t>Sergeevich</t>
+  </si>
+  <si>
+    <t>13.11.2019</t>
+  </si>
+  <si>
+    <t>Uncredit</t>
+  </si>
+  <si>
+    <t>15.07.2020</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Krasnova</t>
+  </si>
+  <si>
+    <t>Alexandra</t>
+  </si>
+  <si>
+    <t>Sergeevna</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Ivanov</t>
-  </si>
-  <si>
-    <t>Ivan</t>
-  </si>
-  <si>
-    <t>Ivanovich</t>
-  </si>
-  <si>
-    <t>Philosophy</t>
-  </si>
-  <si>
-    <t>Sergeev</t>
-  </si>
-  <si>
-    <t>Sergey</t>
-  </si>
-  <si>
-    <t>Sergeevich</t>
-  </si>
-  <si>
-    <t>Uncredit</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Krasnova</t>
-  </si>
-  <si>
-    <t>Alexandra</t>
-  </si>
-  <si>
-    <t>Sergeevna</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Kirpitch</t>
   </si>
   <si>
@@ -174,6 +188,9 @@
     <t>Stepanovich</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Denisov</t>
   </si>
   <si>
@@ -181,12 +198,6 @@
   </si>
   <si>
     <t>Denisovich</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>History</t>
   </si>
   <si>
     <t>Pervaya</t>
@@ -262,7 +273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -334,39 +345,39 @@
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -380,16 +391,16 @@
         <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -403,33 +414,33 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>12</v>
@@ -440,65 +451,65 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>21</v>
@@ -509,71 +520,48 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -623,16 +611,16 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>20</v>
@@ -641,21 +629,21 @@
         <v>21</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>11</v>
@@ -664,21 +652,21 @@
         <v>12</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>20</v>
@@ -692,19 +680,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>21</v>
@@ -719,258 +707,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -1012,16 +748,222 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>58</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>11</v>
@@ -1030,144 +972,75 @@
         <v>12</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="0" t="s">
         <v>16</v>
       </c>
     </row>
